--- a/runge-kutta-result.xlsx
+++ b/runge-kutta-result.xlsx
@@ -110,64 +110,64 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35000000000000003</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8500000000000001</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9500000000000001</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -184,61 +184,61 @@
                   <c:v>2.2155125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4589491708854165</c:v>
+                  <c:v>2.464207712552083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7332468209784118</c:v>
+                  <c:v>2.749575491187613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0416511251797287</c:v>
+                  <c:v>3.0754727202420566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.387749108724152</c:v>
+                  <c:v>3.446161915790514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.775505047279595</c:v>
+                  <c:v>3.866353886275799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.209300142689529</c:v>
+                  <c:v>4.3412548797903305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.693976371446306</c:v>
+                  <c:v>4.876618689876946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.234884944744957</c:v>
+                  <c:v>5.478804241340213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.837939865121238</c:v>
+                  <c:v>6.1548392324054975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5096771156859266</c:v>
+                  <c:v>6.912490470176944</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.257320074340212</c:v>
+                  <c:v>7.760341603334178</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.088851807658635</c:v>
+                  <c:v>8.707879030041502</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.013094967979933</c:v>
+                  <c:v>9.765586840863492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.039800093341523</c:v>
+                  <c:v>10.945051746906138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.179743193991662</c:v>
+                  <c:v>12.259079043338046</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.444833602156427</c:v>
+                  <c:v>13.721820768891778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.848233164456554</c:v>
+                  <c:v>15.348917344006766</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.404487969890086</c:v>
+                  <c:v>17.157654105173744</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.129673931756734</c:v>
+                  <c:v>19.16713430212662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +357,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B4" t="n">
         <v>2.2155125</v>
@@ -365,154 +365,154 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B5" t="n">
-        <v>2.4589491708854165</v>
+        <v>2.464207712552083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7332468209784118</v>
+        <v>2.749575491187613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0416511251797287</v>
+        <v>3.0754727202420566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B8" t="n">
-        <v>3.387749108724152</v>
+        <v>3.446161915790514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>3.775505047279595</v>
+        <v>3.866353886275799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.35000000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>4.209300142689529</v>
+        <v>4.3412548797903305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B11" t="n">
-        <v>4.693976371446306</v>
+        <v>4.876618689876946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="B12" t="n">
-        <v>5.234884944744957</v>
+        <v>5.478804241340213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5.837939865121238</v>
+        <v>6.1548392324054975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.55</v>
+        <v>1.1</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5096771156859266</v>
+        <v>6.912490470176944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6000000000000001</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B15" t="n">
-        <v>7.257320074340212</v>
+        <v>7.760341603334178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="B16" t="n">
-        <v>8.088851807658635</v>
+        <v>8.707879030041502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>9.013094967979933</v>
+        <v>9.765586840863492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>10.039800093341523</v>
+        <v>10.945051746906138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="B19" t="n">
-        <v>11.179743193991662</v>
+        <v>12.259079043338046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8500000000000001</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="B20" t="n">
-        <v>12.444833602156427</v>
+        <v>13.721820768891778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="B21" t="n">
-        <v>13.848233164456554</v>
+        <v>15.348917344006766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9500000000000001</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>15.404487969890086</v>
+        <v>17.157654105173744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B23" t="n">
-        <v>17.129673931756734</v>
+        <v>19.16713430212662</v>
       </c>
     </row>
   </sheetData>

--- a/runge-kutta-result.xlsx
+++ b/runge-kutta-result.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>runge-kutta</t>
+  </si>
+  <si>
+    <t>-x+3e^x-1</t>
   </si>
   <si>
     <t>x</t>
@@ -245,6 +248,159 @@
           </c:val>
           <c:smooth val="false"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>-x+3e^x-1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Лист 1'!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Лист 1'!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.215513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.464208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.749576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.075474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.446164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.866356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.341258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.876623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.478809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.154845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.912498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.760351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.70789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.94507</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.2591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.72184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.34894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.15768</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.16717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
         <c:smooth val="false"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
@@ -328,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -338,13 +494,22 @@
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
+      <c r="D1" t="s" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>2</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -354,6 +519,12 @@
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -362,6 +533,12 @@
       <c r="B4" t="n">
         <v>2.2155125</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.215513</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -370,6 +547,12 @@
       <c r="B5" t="n">
         <v>2.464207712552083</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.464208</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -378,6 +561,12 @@
       <c r="B6" t="n">
         <v>2.749575491187613</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.749576</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -386,6 +575,12 @@
       <c r="B7" t="n">
         <v>3.0754727202420566</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.075474</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -394,6 +589,12 @@
       <c r="B8" t="n">
         <v>3.446161915790514</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.446164</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -402,6 +603,12 @@
       <c r="B9" t="n">
         <v>3.866353886275799</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.866356</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -410,6 +617,12 @@
       <c r="B10" t="n">
         <v>4.3412548797903305</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.341258</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -418,6 +631,12 @@
       <c r="B11" t="n">
         <v>4.876618689876946</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.876623</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -426,6 +645,12 @@
       <c r="B12" t="n">
         <v>5.478804241340213</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.478809</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -434,6 +659,12 @@
       <c r="B13" t="n">
         <v>6.1548392324054975</v>
       </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.154845</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -442,6 +673,12 @@
       <c r="B14" t="n">
         <v>6.912490470176944</v>
       </c>
+      <c r="D14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.912498</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -450,6 +687,12 @@
       <c r="B15" t="n">
         <v>7.760341603334178</v>
       </c>
+      <c r="D15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.760351</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -458,6 +701,12 @@
       <c r="B16" t="n">
         <v>8.707879030041502</v>
       </c>
+      <c r="D16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.70789</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -466,6 +715,12 @@
       <c r="B17" t="n">
         <v>9.765586840863492</v>
       </c>
+      <c r="D17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.7656</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -474,6 +729,12 @@
       <c r="B18" t="n">
         <v>10.945051746906138</v>
       </c>
+      <c r="D18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.94507</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -482,6 +743,12 @@
       <c r="B19" t="n">
         <v>12.259079043338046</v>
       </c>
+      <c r="D19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.2591</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -490,6 +757,12 @@
       <c r="B20" t="n">
         <v>13.721820768891778</v>
       </c>
+      <c r="D20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.72184</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -498,6 +771,12 @@
       <c r="B21" t="n">
         <v>15.348917344006766</v>
       </c>
+      <c r="D21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.34894</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -506,6 +785,12 @@
       <c r="B22" t="n">
         <v>17.157654105173744</v>
       </c>
+      <c r="D22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17.15768</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -513,6 +798,12 @@
       </c>
       <c r="B23" t="n">
         <v>19.16713430212662</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.16717</v>
       </c>
     </row>
   </sheetData>
